--- a/CustomerPortalWebApi/Uploads/ExcelFiles/SampleBalanceConfirmationUpload (3).xlsx
+++ b/CustomerPortalWebApi/Uploads/ExcelFiles/SampleBalanceConfirmationUpload (3).xlsx
@@ -1,65 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrystalPc3\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A264E-E93D-420B-85CA-14931E87190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="BalanceConfirmation" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Dealer Code</t>
   </si>
   <si>
-    <t>018D000035</t>
-  </si>
-  <si>
-    <t>018D000058</t>
-  </si>
-  <si>
-    <t>018D000076</t>
-  </si>
-  <si>
-    <t>018D000105</t>
-  </si>
-  <si>
-    <t>018D000108</t>
-  </si>
-  <si>
-    <t>018D000116</t>
-  </si>
-  <si>
-    <t>018D000120</t>
-  </si>
-  <si>
-    <t>018D000128</t>
-  </si>
-  <si>
     <t>018D000130</t>
-  </si>
-  <si>
-    <t>018D000139</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -94,15 +61,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -390,71 +349,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
